--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1571963.778895911</v>
+        <v>1569322.095281391</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>461523.3857480699</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10370947.55361955</v>
+        <v>10426384.51980256</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>145.1986582043247</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>178.8948621820432</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.3719790181562</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>68.99325526739264</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20.00402729331237</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>320.1469888566999</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>412.1525406823579</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>89.02792617476479</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>7.223995078890083</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.3058629286494</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>63.29937871537934</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8304936665192</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>185.3223896630561</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>142.7519712840425</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.98724090164814</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>220.5470023991044</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83170580711976</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.65893964714638</v>
+        <v>62.17401768251952</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>125.3225174300316</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29913347719358</v>
+        <v>86.34312009993552</v>
       </c>
       <c r="I9" t="n">
-        <v>35.58049105334803</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.37232180742821</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1871329268861</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6790476831053</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8192001275736</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>83.44763912713508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.91655863091768</v>
+        <v>9.085774025514283</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.12871188675649</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>87.04825530485016</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3498598144164</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632822</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111885</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292354</v>
+        <v>148.9055307001832</v>
       </c>
       <c r="U11" t="n">
-        <v>250.949422691779</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.6934939670195</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749274</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271489906</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254633</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4832755487706</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7670384496465</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.3461914257853</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7692889308208</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.999582804453815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628541</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389547</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465557</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1978462422561</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352878</v>
+        <v>34.32106446353023</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>151.7477755975574</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.92873806063683</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1895,7 +1895,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001851</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>319.4395745411777</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.2643058741632</v>
+        <v>166.0377029023278</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.4423155261895</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2138,7 +2138,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4607323328451</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.4000024487216</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>7.729505493041945</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440902</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>115.8627380890762</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64713141731174</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.52079624060497</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
-        <v>132.6315337216688</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>133.6059237111936</v>
+        <v>137.7610225486951</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179819</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>94.91529601901398</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634802</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>48.13676080754331</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428044</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.842993615825</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912178</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262258</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652786</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652786</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652786</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="V2" t="n">
-        <v>560.682563648794</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="W2" t="n">
-        <v>560.682563648794</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323095</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.842993615825</v>
+        <v>511.8624171433439</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>369.9705690562491</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="C3" t="n">
-        <v>369.9705690562491</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="D3" t="n">
-        <v>221.0361593949979</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E3" t="n">
-        <v>221.0361593949979</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264268</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264268</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264268</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264268</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099422</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099422</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="X3" t="n">
-        <v>487.5180226099422</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.5180226099422</v>
+        <v>607.2476507906783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1272.720081405892</v>
+        <v>550.0430149204875</v>
       </c>
       <c r="C5" t="n">
-        <v>1272.720081405892</v>
+        <v>550.0430149204875</v>
       </c>
       <c r="D5" t="n">
-        <v>1272.720081405892</v>
+        <v>550.0430149204875</v>
       </c>
       <c r="E5" t="n">
-        <v>949.3392845809428</v>
+        <v>550.0430149204875</v>
       </c>
       <c r="F5" t="n">
-        <v>538.3533797913353</v>
+        <v>543.097514171284</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>126.7818165123366</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>126.7818165123366</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>122.3145011261495</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>301.1352304553214</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>559.8799194566295</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>879.4526781788765</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1208.810266619115</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1506.478036654141</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>1726.029590732825</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>1842.730917800428</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>1842.730917800428</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642784</v>
+        <v>1835.433953074276</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642784</v>
+        <v>1624.013889509984</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.325171642784</v>
+        <v>1624.013889509984</v>
       </c>
       <c r="V5" t="n">
-        <v>2036.325171642784</v>
+        <v>1292.951002166413</v>
       </c>
       <c r="W5" t="n">
-        <v>2036.325171642784</v>
+        <v>940.1823468962992</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.859413381704</v>
+        <v>940.1823468962992</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.720081405892</v>
+        <v>550.0430149204875</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809.4046422439259</v>
+        <v>332.3235859903749</v>
       </c>
       <c r="C6" t="n">
-        <v>634.9516129627989</v>
+        <v>332.3235859903749</v>
       </c>
       <c r="D6" t="n">
-        <v>486.0172033015477</v>
+        <v>183.3891763291236</v>
       </c>
       <c r="E6" t="n">
-        <v>326.7797482960922</v>
+        <v>183.3891763291236</v>
       </c>
       <c r="F6" t="n">
-        <v>180.2451903229772</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>68.9360921181042</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>201.9232653644101</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>427.0634725857395</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>709.1483434077632</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>1013.107806306463</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1268.951536358884</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1454.955619064346</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1529.375226064138</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1529.375226064138</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835205</v>
+        <v>1529.375226064138</v>
       </c>
       <c r="T6" t="n">
-        <v>1432.552065309181</v>
+        <v>1465.436459684967</v>
       </c>
       <c r="U6" t="n">
-        <v>1204.450475442445</v>
+        <v>1237.324849920806</v>
       </c>
       <c r="V6" t="n">
-        <v>1204.450475442445</v>
+        <v>1002.172741689063</v>
       </c>
       <c r="W6" t="n">
-        <v>1017.256142449459</v>
+        <v>747.9353849608616</v>
       </c>
       <c r="X6" t="n">
-        <v>809.4046422439259</v>
+        <v>540.0838847553288</v>
       </c>
       <c r="Y6" t="n">
-        <v>809.4046422439259</v>
+        <v>332.3235859903749</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.1224447077607</v>
+        <v>181.0485287439303</v>
       </c>
       <c r="C7" t="n">
-        <v>189.1224447077607</v>
+        <v>181.0485287439303</v>
       </c>
       <c r="D7" t="n">
-        <v>189.1224447077607</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="E7" t="n">
-        <v>189.1224447077607</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="F7" t="n">
-        <v>189.1224447077607</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="G7" t="n">
-        <v>189.1224447077607</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="H7" t="n">
-        <v>171.9636155141767</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600856</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>71.66278688941107</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018941</v>
+        <v>146.1110562813914</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>227.8646009517957</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>315.5317549640429</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>376.1934721167868</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>409.0380796419477</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514521</v>
+        <v>409.0380796419477</v>
       </c>
       <c r="R7" t="n">
-        <v>388.3019303235343</v>
+        <v>409.0380796419477</v>
       </c>
       <c r="S7" t="n">
-        <v>189.1224447077607</v>
+        <v>409.0380796419477</v>
       </c>
       <c r="T7" t="n">
-        <v>189.1224447077607</v>
+        <v>409.0380796419477</v>
       </c>
       <c r="U7" t="n">
-        <v>189.1224447077607</v>
+        <v>409.0380796419477</v>
       </c>
       <c r="V7" t="n">
-        <v>189.1224447077607</v>
+        <v>409.0380796419477</v>
       </c>
       <c r="W7" t="n">
-        <v>189.1224447077607</v>
+        <v>409.0380796419477</v>
       </c>
       <c r="X7" t="n">
-        <v>189.1224447077607</v>
+        <v>181.0485287439303</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.1224447077607</v>
+        <v>181.0485287439303</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1511.520070574107</v>
+        <v>125.1073766066363</v>
       </c>
       <c r="C8" t="n">
-        <v>1288.745320676022</v>
+        <v>125.1073766066363</v>
       </c>
       <c r="D8" t="n">
-        <v>930.4796220692715</v>
+        <v>125.1073766066363</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6913694710273</v>
+        <v>125.1073766066363</v>
       </c>
       <c r="F8" t="n">
-        <v>133.7054646814198</v>
+        <v>118.1618758574328</v>
       </c>
       <c r="G8" t="n">
-        <v>121.7542466944301</v>
+        <v>106.1712346012442</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7542466944301</v>
+        <v>106.1712346012442</v>
       </c>
       <c r="I8" t="n">
-        <v>44.32097432357516</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>156.7390114960367</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K8" t="n">
-        <v>375.9630260936715</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>684.831563173381</v>
+        <v>669.5878927711885</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.176760714421</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.20924434183</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O8" t="n">
-        <v>1797.393510791283</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2062.620156411777</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2213.621575041419</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2216.048716178758</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2216.048716178758</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>2216.048716178758</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U8" t="n">
-        <v>2216.048716178758</v>
+        <v>1572.544009457213</v>
       </c>
       <c r="V8" t="n">
-        <v>1884.985828835187</v>
+        <v>1241.481122113642</v>
       </c>
       <c r="W8" t="n">
-        <v>1884.985828835187</v>
+        <v>888.7124668435279</v>
       </c>
       <c r="X8" t="n">
-        <v>1511.520070574107</v>
+        <v>515.246708582448</v>
       </c>
       <c r="Y8" t="n">
-        <v>1511.520070574107</v>
+        <v>125.1073766066363</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>302.1009156978916</v>
+        <v>267.4604631511949</v>
       </c>
       <c r="C9" t="n">
-        <v>302.1009156978916</v>
+        <v>267.4604631511949</v>
       </c>
       <c r="D9" t="n">
-        <v>302.1009156978916</v>
+        <v>267.4604631511949</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1009156978916</v>
+        <v>267.4604631511949</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1009156978916</v>
+        <v>267.4604631511949</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5125142534152</v>
+        <v>130.5844693663109</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26086427645195</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>44.32097432357516</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>92.45854016584671</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>252.8881321538933</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>514.9280579783103</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>840.07315996285</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.232530213221</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1484.510540339608</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1702.966697553528</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.079656946498</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1768.400544009701</v>
+        <v>1734.238298972668</v>
       </c>
       <c r="S9" t="n">
-        <v>1629.827682467392</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="T9" t="n">
-        <v>1435.202381777387</v>
+        <v>1400.563316948362</v>
       </c>
       <c r="U9" t="n">
-        <v>1207.102179628323</v>
+        <v>1172.461727081626</v>
       </c>
       <c r="V9" t="n">
-        <v>971.9500713965799</v>
+        <v>937.3096188498832</v>
       </c>
       <c r="W9" t="n">
-        <v>717.7127146683783</v>
+        <v>683.0722621216817</v>
       </c>
       <c r="X9" t="n">
-        <v>509.8612144628455</v>
+        <v>475.2207619161488</v>
       </c>
       <c r="Y9" t="n">
-        <v>302.1009156978916</v>
+        <v>267.4604631511949</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>293.6120454393549</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="C10" t="n">
-        <v>293.6120454393549</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="D10" t="n">
-        <v>209.3215008664912</v>
+        <v>347.3497871391181</v>
       </c>
       <c r="E10" t="n">
-        <v>61.40840728409806</v>
+        <v>199.436693556725</v>
       </c>
       <c r="F10" t="n">
-        <v>61.40840728409806</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="G10" t="n">
-        <v>61.40840728409806</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="H10" t="n">
-        <v>61.40840728409806</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="I10" t="n">
-        <v>61.40840728409806</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="J10" t="n">
-        <v>44.32097432357516</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>95.68230135470534</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>191.3129145707732</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>295.4002708199192</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>404.870188290089</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>485.6702863757492</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>535.746757801831</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>514.404624582885</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>514.404624582885</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="S10" t="n">
-        <v>514.404624582885</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>514.404624582885</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="U10" t="n">
-        <v>514.404624582885</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="V10" t="n">
-        <v>514.404624582885</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="W10" t="n">
-        <v>514.404624582885</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="X10" t="n">
-        <v>514.404624582885</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="Y10" t="n">
-        <v>293.6120454393549</v>
+        <v>497.4664265514538</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1987.564495071023</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1618.601978130612</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1260.336279523861</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>874.5480269256168</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>786.620496314657</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>372.125688421307</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>80.45786684223404</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223404</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746714</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K11" t="n">
-        <v>723.223450194704</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653015</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458667</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328189</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990711</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.88914460886</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718602</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111702</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.765696676228</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T11" t="n">
-        <v>3722.316578060839</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.832312715607</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.769425372036</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W11" t="n">
-        <v>3137.769425372036</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X11" t="n">
-        <v>2764.303667110957</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2374.164335135145</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5545302742961</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1015009931691</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1670913319178</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9296363264624</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3950783533473</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>176.3410440432266</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727435</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223404</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J12" t="n">
-        <v>197.7334562039176</v>
+        <v>97.83671828558994</v>
       </c>
       <c r="K12" t="n">
-        <v>197.7334562039176</v>
+        <v>428.3454608489487</v>
       </c>
       <c r="L12" t="n">
-        <v>630.2027971699432</v>
+        <v>919.0777936927001</v>
       </c>
       <c r="M12" t="n">
-        <v>1154.230987988555</v>
+        <v>1511.096147944828</v>
       </c>
       <c r="N12" t="n">
-        <v>1706.537290639335</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O12" t="n">
-        <v>2189.569860571537</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P12" t="n">
-        <v>2557.913016602452</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
-        <v>2557.913016602452</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
-        <v>2557.913016602452</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.215892839358</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.818644810297</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.771131224795</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.619022993052</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.381666264851</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.530166059318</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.769867294364</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.9015930349823</v>
+        <v>713.7377723076911</v>
       </c>
       <c r="C13" t="n">
-        <v>247.9015930349823</v>
+        <v>544.8015893797842</v>
       </c>
       <c r="D13" t="n">
-        <v>247.9015930349823</v>
+        <v>394.6849499674485</v>
       </c>
       <c r="E13" t="n">
-        <v>247.9015930349823</v>
+        <v>246.7718563850553</v>
       </c>
       <c r="F13" t="n">
-        <v>247.9015930349823</v>
+        <v>99.88190888714499</v>
       </c>
       <c r="G13" t="n">
-        <v>80.45786684223404</v>
+        <v>99.88190888714499</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45786684223404</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223404</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283903</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076821</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977129</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583784</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955085</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510216</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226117</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167697</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2114.821283191651</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.650987192707</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>1706.991479973964</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="U13" t="n">
-        <v>1417.902746395928</v>
+        <v>1888.270025422326</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.218258190041</v>
+        <v>1633.585537216439</v>
       </c>
       <c r="W13" t="n">
-        <v>873.8010881530806</v>
+        <v>1344.168367179478</v>
       </c>
       <c r="X13" t="n">
-        <v>645.8115372550633</v>
+        <v>1116.178816281461</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.0189581115332</v>
+        <v>895.3862371379308</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,25 +5261,25 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
         <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L14" t="n">
         <v>1461.457663018651</v>
@@ -5291,16 +5291,16 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
         <v>4605.913419421674</v>
@@ -5312,16 +5312,16 @@
         <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W14" t="n">
         <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5343,28 +5343,28 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412852</v>
+        <v>301.0525042748304</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385036</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N15" t="n">
         <v>2005.899154770046</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>725.9685878896546</v>
+        <v>561.9183350635719</v>
       </c>
       <c r="C16" t="n">
-        <v>557.0324049617477</v>
+        <v>392.982152135665</v>
       </c>
       <c r="D16" t="n">
-        <v>406.9157655494118</v>
+        <v>392.982152135665</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494118</v>
+        <v>392.982152135665</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>246.0922046377547</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
         <v>1653.109749005499</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2409.255836975181</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2409.255836975181</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2189.577054689562</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1900.500841004289</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1645.816352798402</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1356.399182761442</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X16" t="n">
-        <v>1128.409631863424</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y16" t="n">
-        <v>907.6170527198943</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
         <v>1948.261951965432</v>
@@ -5507,58 +5507,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945777</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608053</v>
+        <v>301.0525042748304</v>
       </c>
       <c r="L18" t="n">
-        <v>583.5439560698319</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M18" t="n">
-        <v>1175.56231032196</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N18" t="n">
-        <v>1797.658273721296</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>2344.53474872149</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.4953365361201</v>
+        <v>575.851948477319</v>
       </c>
       <c r="C19" t="n">
-        <v>782.5591536082133</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="D19" t="n">
-        <v>632.4425141958775</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="E19" t="n">
-        <v>484.5294206134844</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F19" t="n">
-        <v>484.5294206134844</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
         <v>431.4224730861981</v>
@@ -5695,28 +5695,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.346239107599</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821981</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>1668.591243136708</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V19" t="n">
-        <v>1413.906754930821</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W19" t="n">
-        <v>1124.489584893861</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.489584893861</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y19" t="n">
-        <v>1124.489584893861</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="20">
@@ -5744,58 +5744,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608043</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J20" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5817,16 +5817,16 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
         <v>240.4596049779265</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>494.4953311667363</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C22" t="n">
-        <v>325.5591482388294</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D22" t="n">
-        <v>175.4425088264937</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="E22" t="n">
-        <v>175.4425088264937</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="F22" t="n">
-        <v>175.4425088264937</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="G22" t="n">
-        <v>175.4425088264937</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H22" t="n">
         <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
         <v>431.4224730861981</v>
@@ -5941,19 +5941,19 @@
         <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>1668.591243136709</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V22" t="n">
-        <v>1413.906754930822</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W22" t="n">
-        <v>1124.489584893861</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X22" t="n">
-        <v>896.5000339958438</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.7074548523136</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>702.4944101284093</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5582272005024</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881668</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2385.703354875905</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2166.101889898846</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1877.026663243044</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.342175037157</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W25" t="n">
-        <v>1332.925005000197</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X25" t="n">
-        <v>1104.935454102179</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.142874958649</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406107</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282751</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458821</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098238</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819169</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871881</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706073</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427005</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>241.7297566303648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718103</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741044</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443772</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008471</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,19 +7017,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622256</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343187</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832662</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.84215317686</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970973</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035995</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892465</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400694</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121625</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121625</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121625</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121626</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.721318527043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138393</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703091</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908934</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>319.8277904368613</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201344974</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>50.2915261372909</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.485788756151948</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4743248871677</v>
+        <v>133.4544069875001</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247368</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729085</v>
+        <v>50.29152613728939</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>13.79427727960956</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.25201353044673</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.29152613728908</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>50.29152613729133</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.567674307774098</v>
+        <v>13.79427727960953</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.29152613729104</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>50.29152613728979</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4319777332157173</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>138.7044571535272</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.75273492913618</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>120.3791545843329</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610396</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823061</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>15.00954930701877</v>
+        <v>10.85445046951727</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>191.2691783702302</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194345</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835837.3003986615</v>
+        <v>898196.3479271419</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898196.3479271419</v>
+        <v>898196.3479271421</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898196.3479271419</v>
+        <v>898196.3479271421</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>898196.3479271419</v>
+        <v>898196.3479271421</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>903109.8587843148</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="14">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117841</v>
-      </c>
       <c r="E2" t="n">
-        <v>484893.3234797091</v>
+        <v>521741.85156472</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.244286178</v>
+        <v>302369.4048679838</v>
       </c>
       <c r="D3" t="n">
-        <v>12010.10621999418</v>
+        <v>85329.2310695686</v>
       </c>
       <c r="E3" t="n">
-        <v>431012.7433043231</v>
+        <v>589710.8045858943</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.0300046388</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744848</v>
+        <v>10818.91345744836</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487782</v>
+        <v>70301.90739529369</v>
       </c>
       <c r="L3" t="n">
-        <v>3011.07989381814</v>
+        <v>20609.7638335245</v>
       </c>
       <c r="M3" t="n">
-        <v>112568.2270402483</v>
+        <v>154015.6312544151</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.1061228296</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>198159.2161991125</v>
       </c>
       <c r="D4" t="n">
-        <v>170887.6532318874</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>15960.05821926692</v>
+        <v>16040.05135066662</v>
       </c>
       <c r="F4" t="n">
         <v>16040.05135066662</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>78719.8398255088</v>
       </c>
       <c r="D5" t="n">
-        <v>86134.07768055703</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635166998</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548045</v>
+        <v>-393202.1173548049</v>
       </c>
       <c r="C6" t="n">
-        <v>-118235.1658191636</v>
+        <v>-45571.31048082092</v>
       </c>
       <c r="D6" t="n">
-        <v>264645.3132793455</v>
+        <v>188945.847397446</v>
       </c>
       <c r="E6" t="n">
-        <v>-50085.67439555086</v>
+        <v>-184197.0378812449</v>
       </c>
       <c r="F6" t="n">
-        <v>261707.6416955762</v>
+        <v>405513.7667046494</v>
       </c>
       <c r="G6" t="n">
-        <v>405559.6717002148</v>
+        <v>405513.7667046494</v>
       </c>
       <c r="H6" t="n">
-        <v>405559.671700215</v>
+        <v>405513.7667046495</v>
       </c>
       <c r="I6" t="n">
-        <v>396657.2625452564</v>
+        <v>396622.5246198208</v>
       </c>
       <c r="J6" t="n">
-        <v>358411.2312741605</v>
+        <v>358376.4933487243</v>
       </c>
       <c r="K6" t="n">
-        <v>316216.2191378271</v>
+        <v>337139.5306819754</v>
       </c>
       <c r="L6" t="n">
-        <v>404465.0961088868</v>
+        <v>386831.6742437446</v>
       </c>
       <c r="M6" t="n">
-        <v>294907.9489624565</v>
+        <v>253425.8068228539</v>
       </c>
       <c r="N6" t="n">
-        <v>369654.0698798754</v>
+        <v>407441.4380772689</v>
       </c>
       <c r="O6" t="n">
-        <v>407476.1760027049</v>
+        <v>407441.4380772691</v>
       </c>
       <c r="P6" t="n">
-        <v>407476.1760027049</v>
+        <v>407441.4380772692</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>783.6114621533162</v>
       </c>
       <c r="D3" t="n">
-        <v>863.4191373688036</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053767</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>460.682729450107</v>
       </c>
       <c r="D4" t="n">
-        <v>554.0121790446894</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527925</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247799</v>
+        <v>235.1415212404114</v>
       </c>
       <c r="D3" t="n">
-        <v>9.708472831119479</v>
+        <v>70.09920238436894</v>
       </c>
       <c r="E3" t="n">
-        <v>368.6091906849631</v>
+        <v>504.3303841787007</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626189</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598436</v>
+        <v>273.157142283787</v>
       </c>
       <c r="D4" t="n">
-        <v>11.8972223185263</v>
+        <v>81.43222727605726</v>
       </c>
       <c r="E4" t="n">
-        <v>451.711156483236</v>
+        <v>618.0303335998422</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980811</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598436</v>
+        <v>273.157142283787</v>
       </c>
       <c r="L4" t="n">
-        <v>11.8972223185263</v>
+        <v>81.43222727605681</v>
       </c>
       <c r="M4" t="n">
-        <v>451.711156483236</v>
+        <v>618.0303335998424</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980811</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598436</v>
+        <v>273.157142283787</v>
       </c>
       <c r="L4" t="n">
-        <v>11.8972223185263</v>
+        <v>81.43222727605726</v>
       </c>
       <c r="M4" t="n">
-        <v>451.711156483236</v>
+        <v>618.0303335998422</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980811</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>220.0742335666828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>227.9811835596683</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27436,16 +27436,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038153</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121494</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.16120463171116</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,22 +27464,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310563</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>136.6894405099117</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482801</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>37.06597233494178</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>61.78338121556192</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>307.2128488020882</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>17.7019860171944</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.0109641804459</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.0936371612143</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6580132634846</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>95.95702499440587</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>41.49077643487232</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>41.03041096167765</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.3756754225238</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>130.0715864537923</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>66.37259349786348</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>5.86350173416983</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.5779095086741</v>
       </c>
       <c r="H7" t="n">
-        <v>131.5525704595971</v>
+        <v>149.6636969338995</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>112.9556107173702</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>27.09138305962006</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>33.1796708442951</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.7566324950334</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.3906443820885</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>221.9079273428379</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2419528192299</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>144.7258893719032</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9270986360556</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.98958889456333</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9239345398469</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.9014082622944</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679703711953</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>10.16383404148007</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>8.157693161919596</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>65.16783389107728</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4339940287773</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3841574853627</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6276797401107</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.068535313724837</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2856691898563</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>196.882590064251</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2930157469153</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2341028839628</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.154841031397571e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.150196832777148</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>32.26195331367898</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>121.4479633956411</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>267.3690184359197</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>400.7168503673765</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>497.1246866884803</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>553.1469996133808</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>562.097496364509</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>530.7727266085811</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>453.0022422993952</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>340.1858182255635</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>197.8835517969377</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>71.78511032690933</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>13.78998663548197</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2520157466221718</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.685503899726001</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>16.27841924209059</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>58.03160356512767</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>159.2431557192886</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>272.1719170009306</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>365.9687305084898</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>427.0682468735573</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>438.3714725870707</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>401.0242545984052</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>321.8573192380291</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>215.1530942878313</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>104.6490930022863</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>31.30749568131408</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>6.793763525649975</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.110888414455658</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.413069849784668</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>12.56347557354006</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>42.49486420988804</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>99.90403837977605</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>164.1730243658915</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>210.0849483943497</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>221.5051219985185</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>216.2382252856849</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>199.7310002222912</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>170.9043752866838</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>118.3253307851507</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>63.53675888213608</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>24.62595365488371</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>6.037662085443582</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.077076537260982</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471031708015288</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.54770347971158</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8169499232595</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>294.5994774281629</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>441.5282496284501</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>547.754836262623</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>609.4827964000399</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>619.3448652404384</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>584.8297936938613</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>499.1386984022338</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.8323753589362</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0371955286155</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>79.09613504639846</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19444130183693</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277682536641223</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857165691698936</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.93631075930288</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.94188894665197</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>175.4614305477491</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>299.8915318915778</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>403.2411735419116</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>470.5634298659979</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>483.017843649365</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>441.8669617438254</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>354.637192478896</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.0655714526572</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3071821565357</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.49603817695171</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.485681011716323</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1221819534012459</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.556985329681449</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84301502207689</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.82279518714759</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>110.0788628084784</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>180.8933864848083</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>231.4812552873674</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>244.0645276336111</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>238.2612186775259</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>220.0727991444289</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3102984189272</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3762897426894</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>70.00772218731314</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>27.13400797272124</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.65257368136619</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08492647252807912</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718656</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248495</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513705</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227912</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>781.60124775616</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663153</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334823</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969612</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604692</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034821</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677686</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051265</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489593</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191121</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900372</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851009</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2978179410945</v>
+        <v>131.9134802621307</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3920979273748</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4554387893028</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760407</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5079312446479</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0382013849519</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837451</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605105</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283633</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22169042763794</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027188</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>66.8122903147846</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0735132340023</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>258.1200333201169</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326443</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731250999</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857224</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>314.02584335377</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299558</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361188</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088407</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801753</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>9.49267728172574</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347969</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,28 +32069,28 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>348.1857632660256</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>487.0792071670522</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>348.1857632660256</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745725</v>
@@ -32330,7 +32330,7 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>86.32311390923343</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>180.6269993223959</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>261.358271718493</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>322.8007663861081</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>332.6844327679181</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>300.6745151868944</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>221.7692465441257</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>117.880128351114</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>32.40552905262186</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>134.3304780265716</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>227.4143507286157</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>284.9342129515389</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>307.0297605037374</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>258.4280101539607</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>187.8829118236989</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>75.17132020180978</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>35.15976619535607</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>75.20027211311145</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806455</v>
+        <v>82.57933805091344</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>88.55268082045171</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>61.27446177044843</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084162</v>
+        <v>33.17637123753622</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.5535729014766</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>221.4383985834695</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>311.9884212926358</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>379.1365631727672</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>389.9318016438475</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>354.7315822721746</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>267.9057026469643</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.5266854844867</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
-        <v>2.451657714483417</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.62380388108238</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>162.0500929172188</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>264.6867937620374</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>328.4293959439796</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>351.6761315660317</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>299.2707172993809</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>220.6627850645658</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.08379736663568</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.88012831427292</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>96.59657900612916</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1387436860061</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>110.5756742122927</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>81.61626069258611</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>50.58229436977956</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246842</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778107</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861727</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390426</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368913</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752744</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087051997</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290326</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363648</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.4601912744278</v>
+        <v>5.075853595464052</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181475007</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3214048672844</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927074</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002035</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0637939706216</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732955</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942341</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929604</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869405</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>384.111399364951</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678096</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948493</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442439</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>210.3443242916665</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>355.7374950837189</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>210.3443242916665</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946983</v>
@@ -35978,7 +35978,7 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010438</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
